--- a/biology/Médecine/Vaccin_contre_les_infections_invasives_à_méningocoque/Vaccin_contre_les_infections_invasives_à_méningocoque.xlsx
+++ b/biology/Médecine/Vaccin_contre_les_infections_invasives_à_méningocoque/Vaccin_contre_les_infections_invasives_à_méningocoque.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Vaccin_contre_les_infections_invasives_%C3%A0_m%C3%A9ningocoque</t>
+          <t>Vaccin_contre_les_infections_invasives_à_méningocoque</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le vaccin contre les infections invasives à méningocoque est un vaccin destiné à prévenir les infections dues à Neisseria meningitidis, une bactérie. Il en existe plusieurs, ciblant différents sérotypes et pouvant être conjugués à des protéines. L'efficacité du vaccin est importante et ses effets secondaires sont le plus souvent sans gravité. Il fait partie des vaccins recommandés chez le nourrisson.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Vaccin_contre_les_infections_invasives_%C3%A0_m%C3%A9ningocoque</t>
+          <t>Vaccin_contre_les_infections_invasives_à_méningocoque</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Rappels</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Neisseria meningitidis est une bactérie responsable d'infections du rhinopharynx, et surtout de formes invasives telles que des méningites, dont la mortalité est de 10 %, et des bactériémies, notamment le purpura fulminans, dont la mortalité est de 20 à 30 % et les séquelles possibles sont une perte de substance cutanée ou une amputation[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Neisseria meningitidis est une bactérie responsable d'infections du rhinopharynx, et surtout de formes invasives telles que des méningites, dont la mortalité est de 10 %, et des bactériémies, notamment le purpura fulminans, dont la mortalité est de 20 à 30 % et les séquelles possibles sont une perte de substance cutanée ou une amputation.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Vaccin_contre_les_infections_invasives_%C3%A0_m%C3%A9ningocoque</t>
+          <t>Vaccin_contre_les_infections_invasives_à_méningocoque</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,9 +556,11 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les vaccins contre les infections invasives à méningocoque contiennent des polyosides de la capsule bactérienne. On distingue les vaccins non conjugués et les vaccins conjugués à des protéines (protéine CRM 197, dérivée de la toxine de Corynebacterium diphtheriae, ou anatoxine tétanique). En France, les vaccins non conjugués disponibles sont les vaccins bivalent, dirigé contre les sérotypes A et C, et tétravalent, dirigé contre les sérotypes A, C, Y et W135. Une variante de ce vaccin tétravalent - commercialisée sous le nom Nimenrix - est désormais utilisable chez le très jeune enfant, à partir de 6 semaines[2]. Les vaccins conjugués disponibles sont les vaccins monovalent C et tétravalent A, C, Y et W135. Ils sont injectables par voie intramusculaire[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les vaccins contre les infections invasives à méningocoque contiennent des polyosides de la capsule bactérienne. On distingue les vaccins non conjugués et les vaccins conjugués à des protéines (protéine CRM 197, dérivée de la toxine de Corynebacterium diphtheriae, ou anatoxine tétanique). En France, les vaccins non conjugués disponibles sont les vaccins bivalent, dirigé contre les sérotypes A et C, et tétravalent, dirigé contre les sérotypes A, C, Y et W135. Une variante de ce vaccin tétravalent - commercialisée sous le nom Nimenrix - est désormais utilisable chez le très jeune enfant, à partir de 6 semaines. Les vaccins conjugués disponibles sont les vaccins monovalent C et tétravalent A, C, Y et W135. Ils sont injectables par voie intramusculaire.
 Les vaccins contre les méningocoques de type B ont été développés plus tardivement. Ils contiennent une série de protéines immunogènes propre à ce méningocoque. Deux vaccins sont en cours de test, se différant suivant les protéines, le 4CMenB et le MenB-FHbp.
 </t>
         </is>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Vaccin_contre_les_infections_invasives_%C3%A0_m%C3%A9ningocoque</t>
+          <t>Vaccin_contre_les_infections_invasives_à_méningocoque</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,9 +590,11 @@
           <t>Recommandations</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En France, la vaccination recommandée du nourrisson consiste en une injection de vaccin conjugué monovalent C à l'âge de 5 mois puis une deuxième injection à 12 mois[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En France, la vaccination recommandée du nourrisson consiste en une injection de vaccin conjugué monovalent C à l'âge de 5 mois puis une deuxième injection à 12 mois.
 </t>
         </is>
       </c>
@@ -587,7 +605,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Vaccin_contre_les_infections_invasives_%C3%A0_m%C3%A9ningocoque</t>
+          <t>Vaccin_contre_les_infections_invasives_à_méningocoque</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -605,11 +623,13 @@
           <t>Efficacité</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les vaccins non conjugués sont peu efficaces chez le nourrisson. Le vaccin bivalent A et C a une efficacité importante après l'âge de 24 mois[1].
-Les vaccins conjugués sont efficaces dès le plus jeune âge. Le vaccin monovalent C a une efficacité évaluée à 93 % avant l'âge de 5 mois, 87 % entre les âges de 5 mois et 2 ans, et 97 % entre les âges de 3 et 16 ans. L'efficacité reste élevée un an après la vaccination uniquement chez les enfants vaccinés à partir de l'âge de 5 mois. Le vaccin conjugué tétravalent A, C, Y et W135 a une efficacité évaluée entre 69 et 96 % entre les âges de 11 et 65 ans, variable selon la valence et l'âge du sujet ; la durée de protection est inconnue[1].
-Le vaccin 4CMenB dirigé contre le méningocoque de type B, permet de diminuer par trois l'incidence de la maladie sur une durée supérieure à trois ans [4]. Par contre ce vaccin est inefficace sur le portage du germe[5]. 
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les vaccins non conjugués sont peu efficaces chez le nourrisson. Le vaccin bivalent A et C a une efficacité importante après l'âge de 24 mois.
+Les vaccins conjugués sont efficaces dès le plus jeune âge. Le vaccin monovalent C a une efficacité évaluée à 93 % avant l'âge de 5 mois, 87 % entre les âges de 5 mois et 2 ans, et 97 % entre les âges de 3 et 16 ans. L'efficacité reste élevée un an après la vaccination uniquement chez les enfants vaccinés à partir de l'âge de 5 mois. Le vaccin conjugué tétravalent A, C, Y et W135 a une efficacité évaluée entre 69 et 96 % entre les âges de 11 et 65 ans, variable selon la valence et l'âge du sujet ; la durée de protection est inconnue.
+Le vaccin 4CMenB dirigé contre le méningocoque de type B, permet de diminuer par trois l'incidence de la maladie sur une durée supérieure à trois ans . Par contre ce vaccin est inefficace sur le portage du germe. 
 </t>
         </is>
       </c>
@@ -620,7 +640,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Vaccin_contre_les_infections_invasives_%C3%A0_m%C3%A9ningocoque</t>
+          <t>Vaccin_contre_les_infections_invasives_à_méningocoque</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -638,10 +658,12 @@
           <t>Tolérance</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les effets indésirables observés après l'injection du vaccin contre les infections invasives à méningocoque peuvent être une douleur, une rougeur ou un œdème au site d'injection, une irritabilité, une fièvre, une céphalée, un malaise. Les événements graves sont rares : réactions allergiques généralisées, anaphylaxie, atteintes neurologiques (paresthésie, réaction méningée, vertige, convulsion), nausée et vomissement, éruption cutanée, arthralgie et purpura[1].
-Le vaccin est contre-indiqué en cas d'hypersensibilité à l'un des composants. L'injection doit être différée en cas de maladie fébrile aiguë sévère[1].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les effets indésirables observés après l'injection du vaccin contre les infections invasives à méningocoque peuvent être une douleur, une rougeur ou un œdème au site d'injection, une irritabilité, une fièvre, une céphalée, un malaise. Les événements graves sont rares : réactions allergiques généralisées, anaphylaxie, atteintes neurologiques (paresthésie, réaction méningée, vertige, convulsion), nausée et vomissement, éruption cutanée, arthralgie et purpura.
+Le vaccin est contre-indiqué en cas d'hypersensibilité à l'un des composants. L'injection doit être différée en cas de maladie fébrile aiguë sévère.
 </t>
         </is>
       </c>
